--- a/sources/case/TripRequest.xlsx
+++ b/sources/case/TripRequest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="780" windowWidth="25365" windowHeight="14160" activeTab="1"/>
+    <workbookView xWindow="2925" yWindow="780" windowWidth="25365" windowHeight="14160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
   <si>
     <t>CaseID</t>
   </si>
@@ -174,6 +174,22 @@
   </si>
   <si>
     <t>TripRequest_07</t>
+  </si>
+  <si>
+    <t>!!Int3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int4</t>
+  </si>
+  <si>
+    <t>!!Int5</t>
+  </si>
+  <si>
+    <t>!!Int6</t>
+  </si>
+  <si>
+    <t>!!Int7</t>
   </si>
 </sst>
 </file>
@@ -224,12 +240,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -577,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -607,128 +622,129 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1">
-        <v>3</v>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1">
-        <v>4</v>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1">
-        <v>5</v>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1">
-        <v>6</v>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1">
-        <v>7</v>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -736,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -778,60 +794,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="3">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="3">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
@@ -840,24 +856,24 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="3">
-        <v>3</v>
+      <c r="F4" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
@@ -866,24 +882,24 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="3">
-        <v>4</v>
+      <c r="F5" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
@@ -892,71 +908,71 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="3">
-        <v>5</v>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="3">
-        <v>6</v>
+      <c r="F7" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="3">
-        <v>7</v>
+      <c r="F8" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="G8" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/sources/case/TripRequest.xlsx
+++ b/sources/case/TripRequest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,19 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="780" windowWidth="25365" windowHeight="14160" activeTab="2"/>
+    <workbookView xWindow="10980" yWindow="585" windowWidth="25365" windowHeight="14160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>CaseID</t>
   </si>
@@ -71,10 +76,7 @@
     <t>comment</t>
   </si>
   <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>user_id</t>
+    <t>与</t>
   </si>
   <si>
     <t>approval_create</t>
@@ -92,111 +94,44 @@
     <t>TripRequest_01</t>
   </si>
   <si>
+    <t>小于5天</t>
+  </si>
+  <si>
+    <t>等于5天</t>
+  </si>
+  <si>
+    <t>大于5天</t>
+  </si>
+  <si>
     <t>TripRequest_02</t>
   </si>
   <si>
     <t>TripRequest_03</t>
   </si>
   <si>
-    <t>小于4天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等于4天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等于5天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等于6天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大于6天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TripRequest_04</t>
-  </si>
-  <si>
-    <t>TripRequest_05</t>
-  </si>
-  <si>
-    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-07-31T12:26:00+08:00"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-08-01T12:26:00+08:00"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-08-02T12:26:00+08:00"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-08-03T12:26:00+08:00"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-08-04T12:26:00+08:00"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${Auth.tenant_id}</t>
-  </si>
-  <si>
-    <t>${Auth.user_id}</t>
-  </si>
-  <si>
-    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-08-02T12:26:00+08:00"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-08-03T12:26:00+08:00"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-08-04T12:26:00+08:00"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认审批流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TripRequest_06</t>
-  </si>
-  <si>
-    <t>发起人为指定部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TripRequest_07</t>
-  </si>
-  <si>
-    <t>!!Int3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!Int4</t>
-  </si>
-  <si>
-    <t>!!Int5</t>
-  </si>
-  <si>
-    <t>!!Int6</t>
-  </si>
-  <si>
-    <t>!!Int7</t>
+    <t>考勤需要</t>
+  </si>
+  <si>
+    <t>TripRequest_1</t>
+  </si>
+  <si>
+    <t>TripRequest_2</t>
+  </si>
+  <si>
+    <t>{"trip_detail":[{"trip_location":"北京","start_time":"{Date.LastMonth}-08T10:00:00+08:00","end_time":"{Date.LastMonth}-09T19:00:00+08:00"}]}</t>
+  </si>
+  <si>
+    <t>{"trip_detail":[{"trip_location":"北京","start_time":"{Date.LastMonth}-01T10:00:00+08:00","end_time":"{Date.LastMonth}-01T19:30:00+08:00"}]}</t>
+  </si>
+  <si>
+    <t>{"trip_detail":[{"trip_location":"北京","start_time":"{Date.LastMonth}-28T12:26:00+08:00","end_time":"{Date.LastMonth}-29T12:26:00+08:00"}]}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -209,13 +144,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -236,19 +164,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -529,17 +453,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -590,19 +510,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="135.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -622,358 +540,231 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>44</v>
+      <c r="E3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>46</v>
+      <c r="C4" s="1">
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
+      <c r="A6" t="s">
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>48</v>
+      <c r="C6" s="1">
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="135.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>29</v>
+      <c r="F6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/TripRequest.xlsx
+++ b/sources/case/TripRequest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="585" windowWidth="25365" windowHeight="14160" activeTab="2"/>
+    <workbookView xWindow="10980" yWindow="585" windowWidth="25365" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,11 @@
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
   <si>
     <t>CaseID</t>
   </si>
@@ -94,44 +89,92 @@
     <t>TripRequest_01</t>
   </si>
   <si>
-    <t>小于5天</t>
+    <t>TripRequest_02</t>
+  </si>
+  <si>
+    <t>TripRequest_03</t>
+  </si>
+  <si>
+    <t>考勤需要</t>
+  </si>
+  <si>
+    <t>TripRequest_1</t>
+  </si>
+  <si>
+    <t>TripRequest_2</t>
+  </si>
+  <si>
+    <t>{"trip_detail":[{"trip_location":"北京","start_time":"{Date.LastMonth}-08T10:00:00+08:00","end_time":"{Date.LastMonth}-09T19:00:00+08:00"}]}</t>
+  </si>
+  <si>
+    <t>{"trip_detail":[{"trip_location":"北京","start_time":"{Date.LastMonth}-01T10:00:00+08:00","end_time":"{Date.LastMonth}-01T19:30:00+08:00"}]}</t>
+  </si>
+  <si>
+    <t>TripRequest_04</t>
+  </si>
+  <si>
+    <t>TripRequest_05</t>
+  </si>
+  <si>
+    <t>TripRequest_06</t>
+  </si>
+  <si>
+    <t>${Auth.tenant_id}</t>
+  </si>
+  <si>
+    <t>${Auth.user_id}</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>默认审批流程</t>
+  </si>
+  <si>
+    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-07-31T12:26:00+08:00"}]}</t>
+  </si>
+  <si>
+    <t>发起人为指定部门</t>
+  </si>
+  <si>
+    <t>小于4天</t>
+  </si>
+  <si>
+    <t>等于4天</t>
+  </si>
+  <si>
+    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-08-01T12:26:00+08:00"}]}</t>
   </si>
   <si>
     <t>等于5天</t>
   </si>
   <si>
-    <t>大于5天</t>
-  </si>
-  <si>
-    <t>TripRequest_02</t>
-  </si>
-  <si>
-    <t>TripRequest_03</t>
-  </si>
-  <si>
-    <t>考勤需要</t>
-  </si>
-  <si>
-    <t>TripRequest_1</t>
-  </si>
-  <si>
-    <t>TripRequest_2</t>
-  </si>
-  <si>
-    <t>{"trip_detail":[{"trip_location":"北京","start_time":"{Date.LastMonth}-08T10:00:00+08:00","end_time":"{Date.LastMonth}-09T19:00:00+08:00"}]}</t>
-  </si>
-  <si>
-    <t>{"trip_detail":[{"trip_location":"北京","start_time":"{Date.LastMonth}-01T10:00:00+08:00","end_time":"{Date.LastMonth}-01T19:30:00+08:00"}]}</t>
-  </si>
-  <si>
-    <t>{"trip_detail":[{"trip_location":"北京","start_time":"{Date.LastMonth}-28T12:26:00+08:00","end_time":"{Date.LastMonth}-29T12:26:00+08:00"}]}</t>
+    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-08-02T12:26:00+08:00"}]}</t>
+  </si>
+  <si>
+    <t>等于6天</t>
+  </si>
+  <si>
+    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-08-03T12:26:00+08:00"}]}</t>
+  </si>
+  <si>
+    <t>TripRequest_07</t>
+  </si>
+  <si>
+    <t>大于6天</t>
+  </si>
+  <si>
+    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-08-04T12:26:00+08:00"}]}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -145,6 +188,27 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,15 +228,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -452,53 +520,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -510,118 +583,189 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -633,137 +777,282 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/sources/case/TripRequest.xlsx
+++ b/sources/case/TripRequest.xlsx
@@ -41,133 +41,134 @@
     <t>API</t>
   </si>
   <si>
+    <t>BasePath</t>
+  </si>
+  <si>
+    <t>http://console.t.upvi.com/bapi</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>contentType</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>tabular_sections</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>与</t>
+  </si>
+  <si>
+    <t>approval_create</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>approval_creating</t>
+  </si>
+  <si>
+    <t>TripRequest_01</t>
+  </si>
+  <si>
+    <t>TripRequest_02</t>
+  </si>
+  <si>
+    <t>TripRequest_03</t>
+  </si>
+  <si>
+    <t>考勤需要</t>
+  </si>
+  <si>
+    <t>TripRequest_1</t>
+  </si>
+  <si>
+    <t>TripRequest_2</t>
+  </si>
+  <si>
+    <t>{"trip_detail":[{"trip_location":"北京","start_time":"{Date.LastMonth}-08T10:00:00+08:00","end_time":"{Date.LastMonth}-09T19:00:00+08:00"}]}</t>
+  </si>
+  <si>
+    <t>{"trip_detail":[{"trip_location":"北京","start_time":"{Date.LastMonth}-01T10:00:00+08:00","end_time":"{Date.LastMonth}-01T19:30:00+08:00"}]}</t>
+  </si>
+  <si>
+    <t>TripRequest_04</t>
+  </si>
+  <si>
+    <t>TripRequest_05</t>
+  </si>
+  <si>
+    <t>TripRequest_06</t>
+  </si>
+  <si>
+    <t>${Auth.tenant_id}</t>
+  </si>
+  <si>
+    <t>${Auth.user_id}</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>默认审批流程</t>
+  </si>
+  <si>
+    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-07-31T12:26:00+08:00"}]}</t>
+  </si>
+  <si>
+    <t>发起人为指定部门</t>
+  </si>
+  <si>
+    <t>小于4天</t>
+  </si>
+  <si>
+    <t>等于4天</t>
+  </si>
+  <si>
+    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-08-01T12:26:00+08:00"}]}</t>
+  </si>
+  <si>
+    <t>等于5天</t>
+  </si>
+  <si>
+    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-08-02T12:26:00+08:00"}]}</t>
+  </si>
+  <si>
+    <t>等于6天</t>
+  </si>
+  <si>
+    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-08-03T12:26:00+08:00"}]}</t>
+  </si>
+  <si>
+    <t>TripRequest_07</t>
+  </si>
+  <si>
+    <t>大于6天</t>
+  </si>
+  <si>
+    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-08-04T12:26:00+08:00"}]}</t>
+  </si>
+  <si>
     <t>TripRequest</t>
-  </si>
-  <si>
-    <t>BasePath</t>
-  </si>
-  <si>
-    <t>http://console.t.upvi.com/bapi</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>contentType</t>
-  </si>
-  <si>
-    <t>application/json</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>tabular_sections</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>与</t>
-  </si>
-  <si>
-    <t>approval_create</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>approval_creating</t>
-  </si>
-  <si>
-    <t>TripRequest_01</t>
-  </si>
-  <si>
-    <t>TripRequest_02</t>
-  </si>
-  <si>
-    <t>TripRequest_03</t>
-  </si>
-  <si>
-    <t>考勤需要</t>
-  </si>
-  <si>
-    <t>TripRequest_1</t>
-  </si>
-  <si>
-    <t>TripRequest_2</t>
-  </si>
-  <si>
-    <t>{"trip_detail":[{"trip_location":"北京","start_time":"{Date.LastMonth}-08T10:00:00+08:00","end_time":"{Date.LastMonth}-09T19:00:00+08:00"}]}</t>
-  </si>
-  <si>
-    <t>{"trip_detail":[{"trip_location":"北京","start_time":"{Date.LastMonth}-01T10:00:00+08:00","end_time":"{Date.LastMonth}-01T19:30:00+08:00"}]}</t>
-  </si>
-  <si>
-    <t>TripRequest_04</t>
-  </si>
-  <si>
-    <t>TripRequest_05</t>
-  </si>
-  <si>
-    <t>TripRequest_06</t>
-  </si>
-  <si>
-    <t>${Auth.tenant_id}</t>
-  </si>
-  <si>
-    <t>${Auth.user_id}</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>默认审批流程</t>
-  </si>
-  <si>
-    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-07-31T12:26:00+08:00"}]}</t>
-  </si>
-  <si>
-    <t>发起人为指定部门</t>
-  </si>
-  <si>
-    <t>小于4天</t>
-  </si>
-  <si>
-    <t>等于4天</t>
-  </si>
-  <si>
-    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-08-01T12:26:00+08:00"}]}</t>
-  </si>
-  <si>
-    <t>等于5天</t>
-  </si>
-  <si>
-    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-08-02T12:26:00+08:00"}]}</t>
-  </si>
-  <si>
-    <t>等于6天</t>
-  </si>
-  <si>
-    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-08-03T12:26:00+08:00"}]}</t>
-  </si>
-  <si>
-    <t>TripRequest_07</t>
-  </si>
-  <si>
-    <t>大于6天</t>
-  </si>
-  <si>
-    <t>{"trip_detail":[{"trip_location":"北京","start_time":"2017-07-28T12:26:00+08:00","end_time":"2017-08-04T12:26:00+08:00"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -521,7 +522,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -543,36 +544,36 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -607,166 +608,166 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -801,259 +802,259 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F2" s="3">
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F3" s="3">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F4" s="3">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F6" s="3">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F7" s="3">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F8" s="3">
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F9" s="3">
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
